--- a/output/reports/reporte( 23.06.2023 )_ci_2016_2020.xlsx
+++ b/output/reports/reporte( 23.06.2023 )_ci_2016_2020.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\Corruption_Paper\output\ejecucion_1\reportes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\Corruption_Paper\output\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FAB2D8-D385-4851-8372-A270ECA931C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21B3689-321F-4DAB-9179-AD3DA2D1AE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8A7EF762-CFAD-4A3D-A864-0A1509D7B587}"/>
   </bookViews>
@@ -894,7 +894,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1007,94 +1007,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1471,28 +1466,28 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="72"/>
     </row>
     <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
     </row>
     <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="17" t="s">
@@ -1513,12 +1508,12 @@
       <c r="G6" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
     </row>
     <row r="7" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="67" t="s">
         <v>92</v>
       </c>
       <c r="C7" s="18" t="s">
@@ -1536,12 +1531,9 @@
       <c r="G7" s="4">
         <v>14535</v>
       </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="57"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="19" t="s">
         <v>16</v>
       </c>
@@ -1557,12 +1549,9 @@
       <c r="G8" s="38">
         <v>14535</v>
       </c>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="57"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="19" t="s">
         <v>26</v>
       </c>
@@ -1578,12 +1567,9 @@
       <c r="G9" s="38">
         <v>14535</v>
       </c>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
     </row>
     <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="58"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="20" t="s">
         <v>27</v>
       </c>
@@ -1599,17 +1585,14 @@
       <c r="G10" s="40">
         <v>14535</v>
       </c>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
     </row>
     <row r="12" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="67"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1625,10 +1608,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4E08D4-DBB8-46F1-A8B5-65DCBAADDAE6}">
-  <dimension ref="A1:M49"/>
+  <dimension ref="B1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1646,24 +1629,24 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="61"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
     </row>
     <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="71"/>
+      <c r="G5" s="83"/>
     </row>
     <row r="6" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F6" s="42" t="s">
@@ -1680,28 +1663,28 @@
     <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="7"/>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="79" t="s">
+      <c r="E10" s="59" t="s">
         <v>38</v>
       </c>
       <c r="F10" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="78" t="s">
+      <c r="G10" s="58" t="s">
         <v>39</v>
       </c>
       <c r="H10" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="80" t="s">
+      <c r="I10" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="81" t="s">
+      <c r="J10" s="61" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1851,7 +1834,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="79" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="53" t="s">
@@ -1880,7 +1863,7 @@
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="69"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="54" t="s">
         <v>24</v>
       </c>
@@ -1907,7 +1890,7 @@
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="69"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="54" t="s">
         <v>8</v>
       </c>
@@ -1934,7 +1917,7 @@
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="69"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="54" t="s">
         <v>10</v>
       </c>
@@ -1961,7 +1944,7 @@
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="69"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="54" t="s">
         <v>60</v>
       </c>
@@ -1988,7 +1971,7 @@
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="69"/>
+      <c r="B21" s="80"/>
       <c r="C21" s="54" t="s">
         <v>44</v>
       </c>
@@ -2015,7 +1998,7 @@
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="69"/>
+      <c r="B22" s="80"/>
       <c r="C22" s="54" t="s">
         <v>61</v>
       </c>
@@ -2042,7 +2025,7 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="69"/>
+      <c r="B23" s="80"/>
       <c r="C23" s="54" t="s">
         <v>18</v>
       </c>
@@ -2069,7 +2052,7 @@
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="69"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="54" t="s">
         <v>6</v>
       </c>
@@ -2096,7 +2079,7 @@
       </c>
     </row>
     <row r="25" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="72"/>
+      <c r="B25" s="81"/>
       <c r="C25" s="55" t="s">
         <v>11</v>
       </c>
@@ -2123,10 +2106,10 @@
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="85" t="s">
+      <c r="B26" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="84" t="s">
+      <c r="C26" s="64" t="s">
         <v>90</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -2138,7 +2121,7 @@
       <c r="F26" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="84" t="s">
+      <c r="G26" s="64" t="s">
         <v>90</v>
       </c>
       <c r="H26" s="3" t="s">
@@ -2278,224 +2261,130 @@
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="L32" s="21"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="L33" s="21"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="L34" s="21"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="L35" s="21"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="74"/>
-      <c r="B36" s="74"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="74"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="74"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="74"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="74"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="74"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="74"/>
-      <c r="B39" s="76"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="74"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="74"/>
-      <c r="B40" s="76"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="74"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="74"/>
-      <c r="B41" s="76"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="77"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="77"/>
-      <c r="M41" s="74"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="74"/>
-      <c r="B42" s="76"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="77"/>
-      <c r="M42" s="74"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="74"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="74"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="74"/>
-      <c r="B44" s="76"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="77"/>
-      <c r="M44" s="74"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="74"/>
-      <c r="B45" s="74"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="74"/>
-      <c r="I45" s="74"/>
-      <c r="J45" s="74"/>
-      <c r="K45" s="74"/>
-      <c r="L45" s="74"/>
-      <c r="M45" s="74"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="74"/>
-      <c r="B46" s="74"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="74"/>
-      <c r="G46" s="74"/>
-      <c r="H46" s="74"/>
-      <c r="I46" s="74"/>
-      <c r="J46" s="74"/>
-      <c r="K46" s="74"/>
-      <c r="L46" s="74"/>
-      <c r="M46" s="74"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="74"/>
-      <c r="B47" s="74"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
-      <c r="J47" s="74"/>
-      <c r="K47" s="74"/>
-      <c r="L47" s="74"/>
-      <c r="M47" s="74"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="74"/>
-      <c r="B48" s="74"/>
-      <c r="C48" s="74"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="74"/>
-      <c r="H48" s="74"/>
-      <c r="I48" s="74"/>
-      <c r="J48" s="74"/>
-      <c r="K48" s="74"/>
-      <c r="L48" s="74"/>
-      <c r="M48" s="74"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="74"/>
-      <c r="B49" s="74"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="74"/>
-      <c r="H49" s="74"/>
-      <c r="I49" s="74"/>
-      <c r="J49" s="74"/>
-      <c r="K49" s="74"/>
-      <c r="L49" s="74"/>
-      <c r="M49" s="74"/>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="34"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B38" s="34"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B39" s="34"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B40" s="34"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B41" s="34"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B42" s="34"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B43" s="34"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B44" s="34"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2537,40 +2426,28 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-    </row>
-    <row r="4" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-    </row>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+    </row>
+    <row r="4" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
     </row>
     <row r="6" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="17" t="s">
@@ -2591,13 +2468,13 @@
       <c r="G6" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
       <c r="M6" s="46"/>
     </row>
     <row r="7" spans="2:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="67" t="s">
         <v>93</v>
       </c>
       <c r="C7" s="18" t="s">
@@ -2615,13 +2492,10 @@
       <c r="G7" s="4">
         <v>14519</v>
       </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
       <c r="M7" s="47"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="57"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="19" t="s">
         <v>16</v>
       </c>
@@ -2637,13 +2511,10 @@
       <c r="G8" s="38">
         <v>14519</v>
       </c>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
       <c r="M8" s="47"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="57"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="19" t="s">
         <v>26</v>
       </c>
@@ -2659,13 +2530,10 @@
       <c r="G9" s="38">
         <v>14519</v>
       </c>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
       <c r="M9" s="47"/>
     </row>
     <row r="10" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="58"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="20" t="s">
         <v>27</v>
       </c>
@@ -2681,30 +2549,15 @@
       <c r="G10" s="40">
         <v>14519</v>
       </c>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
       <c r="M10" s="47"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-    </row>
-    <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-    </row>
+    <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="67"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2720,7 +2573,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9200658D-6EC7-4781-B713-81D07396AC6B}">
-  <dimension ref="B1:M47"/>
+  <dimension ref="B1:L42"/>
   <sheetViews>
     <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="C11" sqref="C11:J15"/>
@@ -2740,24 +2593,24 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="61"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
     </row>
     <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="71"/>
+      <c r="G5" s="83"/>
     </row>
     <row r="6" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F6" s="42" t="s">
@@ -2774,28 +2627,28 @@
     <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="7"/>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="79" t="s">
+      <c r="E10" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="83" t="s">
+      <c r="F10" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="82" t="s">
+      <c r="G10" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="79" t="s">
+      <c r="H10" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="80" t="s">
+      <c r="I10" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="81" t="s">
+      <c r="J10" s="61" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2945,7 +2798,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="84" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -2974,7 +2827,7 @@
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="69"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="10" t="s">
         <v>94</v>
       </c>
@@ -3001,7 +2854,7 @@
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="69"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="10" t="s">
         <v>11</v>
       </c>
@@ -3028,7 +2881,7 @@
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="69"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="10" t="s">
         <v>69</v>
       </c>
@@ -3055,7 +2908,7 @@
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="69"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="10" t="s">
         <v>95</v>
       </c>
@@ -3082,7 +2935,7 @@
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="69"/>
+      <c r="B21" s="80"/>
       <c r="C21" s="10" t="s">
         <v>96</v>
       </c>
@@ -3109,7 +2962,7 @@
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="69"/>
+      <c r="B22" s="80"/>
       <c r="C22" s="10" t="s">
         <v>21</v>
       </c>
@@ -3136,7 +2989,7 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="69"/>
+      <c r="B23" s="80"/>
       <c r="C23" s="10" t="s">
         <v>97</v>
       </c>
@@ -3163,7 +3016,7 @@
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="69"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="10" t="s">
         <v>9</v>
       </c>
@@ -3190,7 +3043,7 @@
       </c>
     </row>
     <row r="25" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="72"/>
+      <c r="B25" s="81"/>
       <c r="C25" s="12" t="s">
         <v>22</v>
       </c>
@@ -3220,7 +3073,7 @@
       <c r="B26" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="84" t="s">
+      <c r="C26" s="64" t="s">
         <v>90</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -3232,7 +3085,7 @@
       <c r="F26" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="87" t="s">
+      <c r="G26" s="66" t="s">
         <v>90</v>
       </c>
       <c r="H26" s="3" t="s">
@@ -3370,215 +3223,44 @@
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="34"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" s="76"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="74"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="74"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" s="76"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36" s="76"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="74"/>
-      <c r="J36" s="74"/>
-      <c r="K36" s="74"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="74"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B37" s="76"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="74"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="76"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="74"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="74"/>
-      <c r="M38" s="74"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="76"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="74"/>
-      <c r="L39" s="74"/>
-      <c r="M39" s="74"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="76"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="74"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="74"/>
-      <c r="L40" s="74"/>
-      <c r="M40" s="74"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="76"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="74"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="74"/>
-      <c r="L41" s="74"/>
-      <c r="M41" s="74"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="76"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="74"/>
-      <c r="J42" s="74"/>
-      <c r="K42" s="74"/>
-      <c r="L42" s="74"/>
-      <c r="M42" s="74"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B43" s="74"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="74"/>
-      <c r="K43" s="74"/>
-      <c r="L43" s="74"/>
-      <c r="M43" s="74"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="74"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="74"/>
-      <c r="L44" s="74"/>
-      <c r="M44" s="74"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B45" s="74"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="74"/>
-      <c r="I45" s="74"/>
-      <c r="J45" s="74"/>
-      <c r="K45" s="74"/>
-      <c r="L45" s="74"/>
-      <c r="M45" s="74"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B46" s="74"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="74"/>
-      <c r="G46" s="74"/>
-      <c r="H46" s="74"/>
-      <c r="I46" s="74"/>
-      <c r="J46" s="74"/>
-      <c r="K46" s="74"/>
-      <c r="L46" s="74"/>
-      <c r="M46" s="74"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B47" s="74"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
-      <c r="J47" s="74"/>
-      <c r="K47" s="74"/>
-      <c r="L47" s="74"/>
-      <c r="M47" s="74"/>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33" s="34"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B35" s="34"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B36" s="34"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="34"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B38" s="34"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B39" s="34"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B40" s="34"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B41" s="34"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B42" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/output/reports/reporte( 23.06.2023 )_ci_2016_2020.xlsx
+++ b/output/reports/reporte( 23.06.2023 )_ci_2016_2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\Corruption_Paper\output\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21B3689-321F-4DAB-9179-AD3DA2D1AE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127748C8-74E0-4DC6-B166-48BBE5D9A046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8A7EF762-CFAD-4A3D-A864-0A1509D7B587}"/>
   </bookViews>
@@ -1610,8 +1610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4E08D4-DBB8-46F1-A8B5-65DCBAADDAE6}">
   <dimension ref="B1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
